--- a/group_info.xlsx
+++ b/group_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jolyon Jian\Desktop\contracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5AF753-4AE0-4FA4-A782-65D85CDE6251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765DAD2F-160C-4110-8E81-327AAD43DFEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35835" yWindow="495" windowWidth="51195" windowHeight="26595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="522">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1457,11 +1457,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侧链Ronin桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Axie Infinity: Ronin Bridge	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSea: Seaport 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kraken 5 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Binance: Contract 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMM BSC 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polygon (Matic): Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	StrongBlock: Service &amp; Kyber Network: KNC Token 代码完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理 &amp; 所有权管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有权管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	 KOK PLAY: KOK Token &amp; Davinci Coin 代码完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	TRON: Old TRX Token &amp; BFX (BFX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1inch v3/1inch v4: Router/1inch Network v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poloniex 2 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSea: Registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>HEX.com: HEX Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bittrex 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fork split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFeast (PFET) 未公开源码 反编译失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bittrex: Controller &amp; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini 4 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENS: Old Registrar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Bitstamp 2 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldUnitedCoins (WUC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enjin Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyClub.live 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baer Chain: BRC Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cronos Coin: CRO Token &amp; Coti: COTI Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Million.Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auction</t>
+  </si>
+  <si>
+    <t>CryptoKitties: Sales Auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueUSD: TUSD Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axie Infinity: SLP Token &amp; Axie Infinity: AXS Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WENI (WENI) &amp; Serum: SRM Token &amp; Ultra: UOS Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POCC (POCC) &amp; ProofOfContributionToken (POCT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth2Dai: Old Contract/OasisDEX/OasisDex: Old Contract/OasisDex: Old Contract 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthetix: Proxy SNX Token/Synthetix: Proxy sUSD Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kraken: Deployer 2 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Network Token/Status: Token Sale 完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wintermute 1 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATB Banknote (ATB) 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码很短 没有太大相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecular Future Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Aave: AAVE Token/Uniswap: Token Distributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biigo2 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binance: BNB Token/PlexCoin (PLX)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1521,7 +1737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,6 +1756,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1846,15 +2068,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E432"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D451" sqref="D451"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.875" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="79.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1872,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +2120,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +2134,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +2162,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1954,7 +2176,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +2204,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2038,7 +2260,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2274,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2122,7 +2344,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2150,7 +2372,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -2200,10 +2422,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2220,20 +2442,32 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="6">
         <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2243,13 +2477,25 @@
       <c r="B29" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="6">
         <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2259,6 +2505,12 @@
       <c r="B31" s="6">
         <v>1</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -2267,448 +2519,784 @@
       <c r="B32" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B87" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -2716,7 +3304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -2724,7 +3312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -2732,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -2740,7 +3328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -2748,7 +3336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -2756,7 +3344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -2764,7 +3352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -2772,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -2844,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
@@ -2860,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
@@ -2868,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
@@ -2876,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
@@ -2900,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
@@ -2908,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
@@ -2932,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
@@ -2972,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>123</v>
       </c>
@@ -2980,7 +3568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>124</v>
       </c>
@@ -2988,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>125</v>
       </c>
@@ -2996,7 +3584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
@@ -3028,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>130</v>
       </c>
@@ -3068,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>135</v>
       </c>
@@ -3100,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>139</v>
       </c>
@@ -3116,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
@@ -3124,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>142</v>
       </c>
@@ -3140,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>144</v>
       </c>
@@ -3148,7 +3736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>145</v>
       </c>
@@ -3172,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -3180,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -3188,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -3212,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
@@ -3220,7 +3808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
@@ -3268,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
@@ -3276,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -3284,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
@@ -3308,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
@@ -3324,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
@@ -3348,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -3380,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>174</v>
       </c>
@@ -3388,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>175</v>
       </c>
@@ -3396,7 +3984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>176</v>
       </c>
@@ -3436,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>181</v>
       </c>
@@ -3452,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>183</v>
       </c>
@@ -3468,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>185</v>
       </c>
@@ -3508,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>190</v>
       </c>
@@ -3516,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>191</v>
       </c>
@@ -3548,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>195</v>
       </c>
@@ -3564,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>197</v>
       </c>
@@ -3572,7 +4160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>198</v>
       </c>
@@ -3596,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>201</v>
       </c>
@@ -3604,7 +4192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>202</v>
       </c>
@@ -3620,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>204</v>
       </c>
@@ -3692,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>213</v>
       </c>
@@ -3700,7 +4288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>214</v>
       </c>
@@ -3708,7 +4296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>215</v>
       </c>
@@ -3716,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>216</v>
       </c>
@@ -3740,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>219</v>
       </c>
@@ -3756,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>221</v>
       </c>
@@ -3820,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>229</v>
       </c>
@@ -3828,7 +4416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
@@ -3860,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>234</v>
       </c>
@@ -3868,7 +4456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>235</v>
       </c>
@@ -3876,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>236</v>
       </c>
@@ -3940,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>244</v>
       </c>
@@ -3948,7 +4536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>245</v>
       </c>
@@ -3956,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>246</v>
       </c>
@@ -3988,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>250</v>
       </c>
@@ -4028,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>255</v>
       </c>
@@ -4084,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>262</v>
       </c>
@@ -4100,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>264</v>
       </c>
@@ -4140,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>269</v>
       </c>
@@ -4156,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>271</v>
       </c>
@@ -4196,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>276</v>
       </c>
@@ -4260,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>284</v>
       </c>
@@ -4284,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>287</v>
       </c>
@@ -4292,7 +4880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>288</v>
       </c>
@@ -4324,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>292</v>
       </c>
@@ -4380,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>299</v>
       </c>
@@ -4412,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>303</v>
       </c>
@@ -4500,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>314</v>
       </c>
@@ -4524,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>317</v>
       </c>
@@ -4548,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>320</v>
       </c>
@@ -4596,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>326</v>
       </c>
@@ -4644,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>332</v>
       </c>
@@ -4716,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>341</v>
       </c>
@@ -4724,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>342</v>
       </c>
@@ -4852,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>358</v>
       </c>
@@ -4884,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>362</v>
       </c>
@@ -4956,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>371</v>
       </c>
@@ -4996,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>376</v>
       </c>
@@ -5324,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>417</v>
       </c>
@@ -5469,10 +6057,31 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D432" xr:uid="{04541F0E-5A7C-482F-903C-CC944D3CA814}">
+  <autoFilter ref="A1:D432" xr:uid="{B388CE93-5F50-4019-BD29-E88D4941BFDD}">
     <filterColumn colId="1">
       <filters>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="13"/>
+        <filter val="14"/>
+        <filter val="15"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="2"/>
+        <filter val="20"/>
+        <filter val="23"/>
+        <filter val="25"/>
+        <filter val="27"/>
+        <filter val="28"/>
+        <filter val="3"/>
+        <filter val="31"/>
         <filter val="35"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/group_info.xlsx
+++ b/group_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jolyon Jian\Desktop\contracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765DAD2F-160C-4110-8E81-327AAD43DFEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE4797B-6FA2-4114-BE99-2607718FF53F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35835" yWindow="495" windowWidth="51195" windowHeight="26595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="16005" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="528">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1679,6 +1679,28 @@
   <si>
     <t>Binance: BNB Token/PlexCoin (PLX)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代币兑换率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyber: Conversion Rates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>The Sandbox: SAND Token</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1761,6 +1783,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2065,11 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919D613-43B4-48E6-A2D9-38EFAC307567}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,7 +2132,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2172,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2190,7 +2214,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2218,7 +2242,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -2232,7 +2256,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2270,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2288,7 +2312,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2302,7 +2326,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2340,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2354,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2358,7 +2382,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -2386,7 +2410,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -2400,7 +2424,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -2414,7 +2438,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -2428,7 +2452,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2494,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2498,7 +2522,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2512,7 +2536,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -2526,7 +2550,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -2540,7 +2564,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -2568,7 +2592,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -2596,7 +2620,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -2680,7 +2704,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -2722,7 +2746,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -2750,7 +2774,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2778,7 +2802,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -2792,7 +2816,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -2820,7 +2844,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -2834,7 +2858,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -2848,7 +2872,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -2890,7 +2914,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -2904,7 +2928,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -2932,7 +2956,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -2946,7 +2970,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2974,7 +2998,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -2988,7 +3012,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
@@ -3002,7 +3026,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
@@ -3016,7 +3040,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -3128,7 +3152,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -3142,7 +3166,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -3170,7 +3194,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -3184,7 +3208,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -3212,7 +3236,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3254,7 +3278,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -3268,7 +3292,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -3303,6 +3327,12 @@
       <c r="B88" s="6">
         <v>6</v>
       </c>
+      <c r="C88" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
@@ -3311,13 +3341,25 @@
       <c r="B89" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3327,6 +3369,12 @@
       <c r="B91" s="6">
         <v>35</v>
       </c>
+      <c r="C91" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
@@ -3335,6 +3383,12 @@
       <c r="B92" s="6">
         <v>6</v>
       </c>
+      <c r="C92" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
@@ -3343,6 +3397,12 @@
       <c r="B93" s="6">
         <v>27</v>
       </c>
+      <c r="C93" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
@@ -3351,8 +3411,14 @@
       <c r="B94" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -3360,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -3368,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -3376,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
@@ -3384,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
@@ -3392,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
@@ -3400,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
@@ -3408,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
@@ -3416,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
@@ -3424,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
@@ -3440,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
@@ -3472,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
@@ -3480,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
@@ -3504,7 +3570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -3512,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>117</v>
       </c>
@@ -3528,7 +3594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>119</v>
       </c>
@@ -3536,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
@@ -3544,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>121</v>
       </c>
@@ -3552,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
@@ -3592,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -3600,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
@@ -3608,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>129</v>
       </c>
@@ -3624,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
@@ -3632,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>132</v>
       </c>
@@ -3640,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>133</v>
       </c>
@@ -3648,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
@@ -3664,7 +3730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>136</v>
       </c>
@@ -3672,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>137</v>
       </c>
@@ -3680,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
@@ -3696,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>140</v>
       </c>
@@ -3720,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>143</v>
       </c>
@@ -3744,7 +3810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -3752,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -3784,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -3792,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
@@ -3816,7 +3882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
@@ -3824,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
@@ -3832,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
@@ -3840,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
@@ -3848,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
@@ -3880,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
@@ -3888,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
@@ -3904,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
@@ -3920,7 +3986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
@@ -3928,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
@@ -3944,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
@@ -3952,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>172</v>
       </c>
@@ -3960,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>173</v>
       </c>
@@ -3992,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>177</v>
       </c>
@@ -4000,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>178</v>
       </c>
@@ -4008,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>179</v>
       </c>
@@ -4016,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>180</v>
       </c>
@@ -4032,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>182</v>
       </c>
@@ -4048,7 +4114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
@@ -4064,7 +4130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>186</v>
       </c>
@@ -4072,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>187</v>
       </c>
@@ -4080,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>188</v>
       </c>
@@ -4088,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>189</v>
       </c>
@@ -4112,7 +4178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>192</v>
       </c>
@@ -4120,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>193</v>
       </c>
@@ -4128,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>194</v>
       </c>
@@ -4144,7 +4210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>196</v>
       </c>
@@ -4168,7 +4234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>199</v>
       </c>
@@ -4176,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>200</v>
       </c>
@@ -4200,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>203</v>
       </c>
@@ -4216,7 +4282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>205</v>
       </c>
@@ -4224,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>206</v>
       </c>
@@ -4232,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>207</v>
       </c>
@@ -4240,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>208</v>
       </c>
@@ -4248,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>209</v>
       </c>
@@ -4256,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>210</v>
       </c>
@@ -4264,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>211</v>
       </c>
@@ -4272,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>212</v>
       </c>
@@ -4312,7 +4378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>217</v>
       </c>
@@ -4320,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>218</v>
       </c>
@@ -4336,7 +4402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>220</v>
       </c>
@@ -4352,7 +4418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>222</v>
       </c>
@@ -4360,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>223</v>
       </c>
@@ -4368,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>224</v>
       </c>
@@ -4376,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>225</v>
       </c>
@@ -4384,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>226</v>
       </c>
@@ -4392,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>227</v>
       </c>
@@ -4400,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>228</v>
       </c>
@@ -4424,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>231</v>
       </c>
@@ -4432,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>232</v>
       </c>
@@ -4440,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
@@ -4472,7 +4538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>237</v>
       </c>
@@ -4480,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>238</v>
       </c>
@@ -4488,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>239</v>
       </c>
@@ -4496,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>240</v>
       </c>
@@ -4504,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>241</v>
       </c>
@@ -4512,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>242</v>
       </c>
@@ -4520,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>243</v>
       </c>
@@ -4552,7 +4618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>247</v>
       </c>
@@ -4560,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>248</v>
       </c>
@@ -4568,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>249</v>
       </c>
@@ -4584,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>251</v>
       </c>
@@ -4592,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>252</v>
       </c>
@@ -4600,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>253</v>
       </c>
@@ -4608,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
@@ -4624,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>256</v>
       </c>
@@ -4632,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>257</v>
       </c>
@@ -4640,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>258</v>
       </c>
@@ -4648,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>259</v>
       </c>
@@ -4656,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>260</v>
       </c>
@@ -4664,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>261</v>
       </c>
@@ -4680,7 +4746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>263</v>
       </c>
@@ -4696,7 +4762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>265</v>
       </c>
@@ -4704,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>266</v>
       </c>
@@ -4712,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>267</v>
       </c>
@@ -4720,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>268</v>
       </c>
@@ -4736,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>270</v>
       </c>
@@ -4752,7 +4818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>272</v>
       </c>
@@ -4760,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>273</v>
       </c>
@@ -4768,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>274</v>
       </c>
@@ -4776,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>275</v>
       </c>
@@ -4792,7 +4858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>277</v>
       </c>
@@ -4800,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>278</v>
       </c>
@@ -4808,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>279</v>
       </c>
@@ -4816,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>280</v>
       </c>
@@ -4824,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>281</v>
       </c>
@@ -4832,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>282</v>
       </c>
@@ -4840,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>283</v>
       </c>
@@ -4856,7 +4922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>285</v>
       </c>
@@ -4864,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>286</v>
       </c>
@@ -4888,7 +4954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>289</v>
       </c>
@@ -4896,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>290</v>
       </c>
@@ -4904,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>291</v>
       </c>
@@ -4920,7 +4986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>293</v>
       </c>
@@ -4928,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>294</v>
       </c>
@@ -4936,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>295</v>
       </c>
@@ -4944,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>296</v>
       </c>
@@ -4952,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>297</v>
       </c>
@@ -4960,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>298</v>
       </c>
@@ -4976,7 +5042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>300</v>
       </c>
@@ -4984,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>301</v>
       </c>
@@ -4992,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>302</v>
       </c>
@@ -5008,7 +5074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>304</v>
       </c>
@@ -5016,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>305</v>
       </c>
@@ -5024,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>306</v>
       </c>
@@ -5032,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>307</v>
       </c>
@@ -5040,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>308</v>
       </c>
@@ -5048,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>309</v>
       </c>
@@ -5056,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>310</v>
       </c>
@@ -5064,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>311</v>
       </c>
@@ -5072,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>312</v>
       </c>
@@ -5080,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>313</v>
       </c>
@@ -5096,7 +5162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>315</v>
       </c>
@@ -5104,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>316</v>
       </c>
@@ -5120,7 +5186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>318</v>
       </c>
@@ -5128,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>319</v>
       </c>
@@ -5144,7 +5210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>321</v>
       </c>
@@ -5152,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>322</v>
       </c>
@@ -5160,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>323</v>
       </c>
@@ -5168,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>324</v>
       </c>
@@ -5176,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>325</v>
       </c>
@@ -5192,7 +5258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>327</v>
       </c>
@@ -5200,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>328</v>
       </c>
@@ -5208,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>329</v>
       </c>
@@ -5216,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>330</v>
       </c>
@@ -5224,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>331</v>
       </c>
@@ -5240,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>333</v>
       </c>
@@ -5248,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>334</v>
       </c>
@@ -5256,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>335</v>
       </c>
@@ -5264,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>336</v>
       </c>
@@ -5272,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>337</v>
       </c>
@@ -5280,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>338</v>
       </c>
@@ -5288,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>339</v>
       </c>
@@ -5296,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>340</v>
       </c>
@@ -5320,7 +5386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>343</v>
       </c>
@@ -5328,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>344</v>
       </c>
@@ -5336,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>345</v>
       </c>
@@ -5344,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>346</v>
       </c>
@@ -5352,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>347</v>
       </c>
@@ -5360,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>348</v>
       </c>
@@ -5368,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>349</v>
       </c>
@@ -5376,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>350</v>
       </c>
@@ -5384,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>351</v>
       </c>
@@ -5392,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>352</v>
       </c>
@@ -5400,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>353</v>
       </c>
@@ -5408,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>354</v>
       </c>
@@ -5416,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>355</v>
       </c>
@@ -5424,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>356</v>
       </c>
@@ -5432,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>357</v>
       </c>
@@ -5448,7 +5514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>359</v>
       </c>
@@ -5456,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>360</v>
       </c>
@@ -5464,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>361</v>
       </c>
@@ -5480,7 +5546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>363</v>
       </c>
@@ -5488,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>364</v>
       </c>
@@ -5496,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>365</v>
       </c>
@@ -5504,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>366</v>
       </c>
@@ -5512,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>367</v>
       </c>
@@ -5520,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>368</v>
       </c>
@@ -5528,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>369</v>
       </c>
@@ -5536,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>370</v>
       </c>
@@ -5552,7 +5618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>372</v>
       </c>
@@ -5560,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>373</v>
       </c>
@@ -5568,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>374</v>
       </c>
@@ -5576,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>375</v>
       </c>
@@ -5592,7 +5658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>377</v>
       </c>
@@ -5600,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>378</v>
       </c>
@@ -5608,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>379</v>
       </c>
@@ -5616,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>380</v>
       </c>
@@ -5624,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>381</v>
       </c>
@@ -5632,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>382</v>
       </c>
@@ -5640,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>383</v>
       </c>
@@ -5648,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>384</v>
       </c>
@@ -5656,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>385</v>
       </c>
@@ -5664,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>386</v>
       </c>
@@ -5672,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>387</v>
       </c>
@@ -5680,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>388</v>
       </c>
@@ -5688,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>389</v>
       </c>
@@ -5696,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>390</v>
       </c>
@@ -5704,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>391</v>
       </c>
@@ -5712,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>392</v>
       </c>
@@ -5720,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>393</v>
       </c>
@@ -5728,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>394</v>
       </c>
@@ -5736,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>395</v>
       </c>
@@ -5744,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>396</v>
       </c>
@@ -5752,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>397</v>
       </c>
@@ -5760,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>398</v>
       </c>
@@ -5768,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>399</v>
       </c>
@@ -5776,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>400</v>
       </c>
@@ -5784,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>401</v>
       </c>
@@ -5792,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>402</v>
       </c>
@@ -5800,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>403</v>
       </c>
@@ -5808,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>404</v>
       </c>
@@ -5816,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>405</v>
       </c>
@@ -5824,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>406</v>
       </c>
@@ -5832,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>407</v>
       </c>
@@ -5840,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>408</v>
       </c>
@@ -5848,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>409</v>
       </c>
@@ -5856,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>410</v>
       </c>
@@ -5864,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>411</v>
       </c>
@@ -5872,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>412</v>
       </c>
@@ -5880,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>413</v>
       </c>
@@ -5888,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>414</v>
       </c>
@@ -5896,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>415</v>
       </c>
@@ -5904,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>416</v>
       </c>
@@ -5920,7 +5986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>418</v>
       </c>
@@ -5928,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>419</v>
       </c>
@@ -5936,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>420</v>
       </c>
@@ -5944,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>421</v>
       </c>
@@ -5952,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>422</v>
       </c>
@@ -5960,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>423</v>
       </c>
@@ -5968,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>424</v>
       </c>
@@ -5976,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>425</v>
       </c>
@@ -5984,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>426</v>
       </c>
@@ -5992,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>427</v>
       </c>
@@ -6000,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>428</v>
       </c>
@@ -6008,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>429</v>
       </c>
@@ -6016,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>430</v>
       </c>
@@ -6024,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>431</v>
       </c>
@@ -6032,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>432</v>
       </c>
@@ -6040,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>433</v>
       </c>
@@ -6048,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>434</v>
       </c>
@@ -6057,34 +6123,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D432" xr:uid="{B388CE93-5F50-4019-BD29-E88D4941BFDD}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="10"/>
-        <filter val="11"/>
-        <filter val="13"/>
-        <filter val="14"/>
-        <filter val="15"/>
-        <filter val="17"/>
-        <filter val="18"/>
-        <filter val="2"/>
-        <filter val="20"/>
-        <filter val="23"/>
-        <filter val="25"/>
-        <filter val="27"/>
-        <filter val="28"/>
-        <filter val="3"/>
-        <filter val="31"/>
-        <filter val="35"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="6"/>
-        <filter val="7"/>
-        <filter val="8"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/group_info.xlsx
+++ b/group_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jolyon Jian\Desktop\contracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F895A1C-8592-49F8-8D3A-97C7246C28DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C9758B-C5B6-43F3-BF8A-F97C196FFDED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="16005" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="877">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,686 +1052,1936 @@
     <t>groups339</t>
   </si>
   <si>
+    <t>groups341</t>
+  </si>
+  <si>
+    <t>groups342</t>
+  </si>
+  <si>
+    <t>groups343</t>
+  </si>
+  <si>
+    <t>groups344</t>
+  </si>
+  <si>
+    <t>groups345</t>
+  </si>
+  <si>
+    <t>groups346</t>
+  </si>
+  <si>
+    <t>groups347</t>
+  </si>
+  <si>
+    <t>groups348</t>
+  </si>
+  <si>
+    <t>groups349</t>
+  </si>
+  <si>
+    <t>groups350</t>
+  </si>
+  <si>
+    <t>groups351</t>
+  </si>
+  <si>
+    <t>groups352</t>
+  </si>
+  <si>
+    <t>groups353</t>
+  </si>
+  <si>
+    <t>groups354</t>
+  </si>
+  <si>
+    <t>groups355</t>
+  </si>
+  <si>
+    <t>groups356</t>
+  </si>
+  <si>
+    <t>groups357</t>
+  </si>
+  <si>
+    <t>groups358</t>
+  </si>
+  <si>
+    <t>groups359</t>
+  </si>
+  <si>
+    <t>groups360</t>
+  </si>
+  <si>
+    <t>groups361</t>
+  </si>
+  <si>
+    <t>groups362</t>
+  </si>
+  <si>
+    <t>groups363</t>
+  </si>
+  <si>
+    <t>groups364</t>
+  </si>
+  <si>
+    <t>groups365</t>
+  </si>
+  <si>
+    <t>groups366</t>
+  </si>
+  <si>
+    <t>groups367</t>
+  </si>
+  <si>
+    <t>groups368</t>
+  </si>
+  <si>
+    <t>groups369</t>
+  </si>
+  <si>
+    <t>groups370</t>
+  </si>
+  <si>
+    <t>groups371</t>
+  </si>
+  <si>
+    <t>groups372</t>
+  </si>
+  <si>
+    <t>groups373</t>
+  </si>
+  <si>
+    <t>groups374</t>
+  </si>
+  <si>
+    <t>groups375</t>
+  </si>
+  <si>
+    <t>groups376</t>
+  </si>
+  <si>
+    <t>groups378</t>
+  </si>
+  <si>
+    <t>groups379</t>
+  </si>
+  <si>
+    <t>groups380</t>
+  </si>
+  <si>
+    <t>groups381</t>
+  </si>
+  <si>
+    <t>groups382</t>
+  </si>
+  <si>
+    <t>groups383</t>
+  </si>
+  <si>
+    <t>groups384</t>
+  </si>
+  <si>
+    <t>groups385</t>
+  </si>
+  <si>
+    <t>groups386</t>
+  </si>
+  <si>
+    <t>groups387</t>
+  </si>
+  <si>
+    <t>groups388</t>
+  </si>
+  <si>
+    <t>groups389</t>
+  </si>
+  <si>
+    <t>groups390</t>
+  </si>
+  <si>
+    <t>groups391</t>
+  </si>
+  <si>
+    <t>groups392</t>
+  </si>
+  <si>
+    <t>groups393</t>
+  </si>
+  <si>
+    <t>groups394</t>
+  </si>
+  <si>
+    <t>groups395</t>
+  </si>
+  <si>
+    <t>groups396</t>
+  </si>
+  <si>
+    <t>groups397</t>
+  </si>
+  <si>
+    <t>groups398</t>
+  </si>
+  <si>
+    <t>groups399</t>
+  </si>
+  <si>
+    <t>groups400</t>
+  </si>
+  <si>
+    <t>groups401</t>
+  </si>
+  <si>
+    <t>groups402</t>
+  </si>
+  <si>
+    <t>groups403</t>
+  </si>
+  <si>
+    <t>groups404</t>
+  </si>
+  <si>
+    <t>groups405</t>
+  </si>
+  <si>
+    <t>groups406</t>
+  </si>
+  <si>
+    <t>groups407</t>
+  </si>
+  <si>
+    <t>groups408</t>
+  </si>
+  <si>
+    <t>groups409</t>
+  </si>
+  <si>
+    <t>groups410</t>
+  </si>
+  <si>
+    <t>groups411</t>
+  </si>
+  <si>
+    <t>groups412</t>
+  </si>
+  <si>
+    <t>groups413</t>
+  </si>
+  <si>
+    <t>groups414</t>
+  </si>
+  <si>
+    <t>groups415</t>
+  </si>
+  <si>
+    <t>groups416</t>
+  </si>
+  <si>
+    <t>groups417</t>
+  </si>
+  <si>
+    <t>groups418</t>
+  </si>
+  <si>
+    <t>groups419</t>
+  </si>
+  <si>
+    <t>groups421</t>
+  </si>
+  <si>
+    <t>groups422</t>
+  </si>
+  <si>
+    <t>groups423</t>
+  </si>
+  <si>
+    <t>groups424</t>
+  </si>
+  <si>
+    <t>groups425</t>
+  </si>
+  <si>
+    <t>groups426</t>
+  </si>
+  <si>
+    <t>groups427</t>
+  </si>
+  <si>
+    <t>groups428</t>
+  </si>
+  <si>
+    <t>groups429</t>
+  </si>
+  <si>
+    <t>groups430</t>
+  </si>
+  <si>
+    <t>groups431</t>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合约类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">均属于uniswap </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TetherToken和MSDToken 除币名和注释外完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几种代币的代理合约 (4 129 508 573 861 971)相同; (371 257 552)相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSea Wyvern Exchange合约的V1 V2版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EtherDelta 2和SingularX 代码完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合约数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些代币合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Wrapped Ether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V3: Router 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V3: Router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metamask: Swap Router 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CryptoKitties (CK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dai Stablecoin (DAI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博彩游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forsage.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些代币合约  与group14相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ENS: ETH Registrar Controller	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Axie Infinity: Ronin Bridge	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSea: Seaport 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kraken 5 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Binance: Contract 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMM BSC 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polygon (Matic): Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	StrongBlock: Service &amp; Kyber Network: KNC Token 代码完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理 &amp; 所有权管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有权管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	 KOK PLAY: KOK Token &amp; Davinci Coin 代码完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	TRON: Old TRX Token &amp; BFX (BFX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1inch v3/1inch v4: Router/1inch Network v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poloniex 2 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSea: Registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>HEX.com: HEX Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bittrex 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fork split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFeast (PFET) 未公开源码 反编译失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bittrex: Controller &amp; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini 4 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENS: Old Registrar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Bitstamp 2 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldUnitedCoins (WUC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enjin Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyClub.live 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baer Chain: BRC Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cronos Coin: CRO Token &amp; Coti: COTI Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Million.Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auction</t>
+  </si>
+  <si>
+    <t>CryptoKitties: Sales Auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueUSD: TUSD Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axie Infinity: SLP Token &amp; Axie Infinity: AXS Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WENI (WENI) &amp; Serum: SRM Token &amp; Ultra: UOS Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POCC (POCC) &amp; ProofOfContributionToken (POCT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth2Dai: Old Contract/OasisDEX/OasisDex: Old Contract/OasisDex: Old Contract 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthetix: Proxy SNX Token/Synthetix: Proxy sUSD Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kraken: Deployer 2 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Network Token/Status: Token Sale 完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wintermute 1 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATB Banknote (ATB) 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码很短 没有太大相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecular Future Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Aave: AAVE Token/Uniswap: Token Distributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biigo2 未公开源码 反编译获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binance: BNB Token/PlexCoin (PLX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代币兑换率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyber: Conversion Rates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>The Sandbox: SAND Token 另一个合约与多个代币合约相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forwarder Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celsius Network: CEL Token &amp; Insolar Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sai Stablecoin &amp; Maker Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loopring: LRC Token &amp; GSENetwork Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ygov.finance: YFI Token / YFII.finance: YFII Token / Value DeFi Protocol: YFV Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与247组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与44/182/296组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一组相同的合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCH: Daily Action 2/MCH: Daily Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与93/242组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkSync/ZKSwap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与44组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doubleway.io/CryptoHands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与47/92/210/339组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与47/90/92/323/339/414组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groups145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与21组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与266/314组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与142组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与29 90 373组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap:DAI 完全相同的一组合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与9 60 241组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与90 92 141 142 323组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与83组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与90 92 142 339组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与14组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与150 158组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdEx: Old Token/Bloxstaking: CDT Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与44 112 182组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与90 211组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFH: Daily Action V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopChainCoin (TOPC)</t>
+  </si>
+  <si>
+    <t>与150组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与111组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与93 121组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与9 60 281 359组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chainlink Oracle contract 一组相同的合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与90 212 289组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与13 47 92 141组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Porxy/Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与80组相似 很短的合约 逻辑并不相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与63组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与44 112 296组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与314组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ownable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用了很多相同的库 合约功能不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价预言机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zapper: ZPR NFT Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem: GemSwap 2/Genie: GenieSwap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与60 86 261组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groups232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与21组相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNDC Stablecoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curve.fi: CRV Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V3: Positions NFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tellor: TRB Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCH: Daily Action 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token.Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyber: Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLive Chain: IOV Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0xUniverse: PLANET Token	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groups103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fantom: FTM Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberty Cash (LCS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x: Exchange v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The OpenDAO: SOS Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiba Inu: Migrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerLedgerToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USDA Stablecoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nexo Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verasity: VRA Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokenlon: DEX 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decentralized Data Assets Management: DDAM Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarible: RARI Token 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bancor: BNT Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunFair Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lambda: LAMB Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFT Auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aave: Lending Pool V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x: Exchange v2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalEthereum 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ambrosus: AMB Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Fans ERC20 Token (PFC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blockchain Cuties: Old BC Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeChain: Old Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LooksRare: Fee Sharing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LooksRare: Exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LooksRare: LOOKS Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numeraire Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FairWin.me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registrar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENS: Reverse Registrar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x: Old Exchange v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aave: LEND Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aelf: ELF Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokenlon: DEX 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON: Old Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balancer: Exchange Proxy 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amp: AMP Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1inch.exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit Miner Chain: BTMC Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleEth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KickICO: Old KICK Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loopring: Old Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dentacoin Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kin: Old Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balancer: Vault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedron: HDRN Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NuCypher: StakingEscrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEx.top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avinoc.com: AVINOC Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Aave: Lending Pool V1	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gifto Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GasToken.io: GST2 Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Augur: REP Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> LionsShare.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeFi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atoshima Konsato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Gold Exchange: TMTG Token</t>
+  </si>
+  <si>
+    <t>OlympusDAO: OHM V1 Token</t>
+  </si>
+  <si>
+    <t>Karl Benz (KAR)</t>
+  </si>
+  <si>
+    <t>民宿通 (MST)</t>
+  </si>
+  <si>
+    <t>VIDT Datalink: Old VIDT Token</t>
+  </si>
+  <si>
+    <t>CryptoPunks: Ͼ Token</t>
+  </si>
+  <si>
+    <t>RipioCreditNetwork Token</t>
+  </si>
+  <si>
+    <t>BitqyToken</t>
+  </si>
+  <si>
+    <t>HUSD Stablecoin</t>
+  </si>
+  <si>
+    <t>Yotta Coin</t>
+  </si>
+  <si>
+    <t>Gemini: GUSD Token</t>
+  </si>
+  <si>
+    <t>Theta: Old Token</t>
+  </si>
+  <si>
+    <t>Lido: stETH Token</t>
+  </si>
+  <si>
+    <t>EDUCare: EKT Token</t>
+  </si>
+  <si>
+    <t>Sirin Labs Token</t>
+  </si>
+  <si>
+    <t>Abracadabra.money: SPELL Token</t>
+  </si>
+  <si>
+    <t>0xe963b0fa93f48c3be91871f8ab6452a446bca7e4</t>
+  </si>
+  <si>
+    <t>KickICO: Old Token 2</t>
+  </si>
+  <si>
+    <t>Storm Token</t>
+  </si>
+  <si>
+    <t>The Otherside: OTHR Token</t>
+  </si>
+  <si>
+    <t>TheDAO Token</t>
+  </si>
+  <si>
+    <t>QuickX Protocol Token</t>
+  </si>
+  <si>
+    <t>StormX Global: STMX Token</t>
+  </si>
+  <si>
+    <t>Consentium: CSM Token</t>
+  </si>
+  <si>
+    <t>Shiba Inu: LEASH Token</t>
+  </si>
+  <si>
+    <t>Zethr Token</t>
+  </si>
+  <si>
+    <t>Cryptaur: CPT Token</t>
+  </si>
+  <si>
+    <t>dYdX: DYDX Token</t>
+  </si>
+  <si>
+    <t>SuperFarm: SUPER Token</t>
+  </si>
+  <si>
+    <t>Veen Token</t>
+  </si>
+  <si>
+    <t>More Loot: MLOOT Token</t>
+  </si>
+  <si>
+    <t>MATRIX AI Network: Old Token</t>
+  </si>
+  <si>
+    <t>ShibaSwap: BONE Token</t>
+  </si>
+  <si>
+    <t>ICONOMI Token</t>
+  </si>
+  <si>
+    <t>Crypterium: Old CRPT Token</t>
+  </si>
+  <si>
+    <t>AirSwap: AST Token</t>
+  </si>
+  <si>
+    <t>Credits: CS Token</t>
+  </si>
+  <si>
+    <t>Axie Infinity: AXIE Token</t>
+  </si>
+  <si>
+    <t>Gas DAO: GAS Token</t>
+  </si>
+  <si>
+    <t>Crypto20: C20 Token</t>
+  </si>
+  <si>
+    <t>Minereum: Old Token 1</t>
+  </si>
+  <si>
+    <t>Love, Death + Robots: LDR Token</t>
+  </si>
+  <si>
+    <t>AION: Old Token</t>
+  </si>
+  <si>
+    <t>EDUCare: Old Token</t>
+  </si>
+  <si>
+    <t>DigixDAO: DGD Token</t>
+  </si>
+  <si>
+    <t>Akropolis: AKRO Token</t>
+  </si>
+  <si>
+    <t>Raiden Token</t>
+  </si>
+  <si>
+    <t>1inch Network: CHI Token</t>
+  </si>
+  <si>
+    <t>Pillar Project: PLR Token</t>
+  </si>
+  <si>
+    <t>EverexToken</t>
+  </si>
+  <si>
+    <t>StarChain: STC Token</t>
+  </si>
+  <si>
+    <t>LLToken</t>
+  </si>
+  <si>
+    <t>Illuvium: ILV Token</t>
+  </si>
+  <si>
+    <t>PChain Token</t>
+  </si>
+  <si>
+    <t>WingsDAO Token</t>
+  </si>
+  <si>
+    <t>Blockpass: PASS Token</t>
+  </si>
+  <si>
+    <t>Snapparazzi Token</t>
+  </si>
+  <si>
+    <t>Simple Token</t>
+  </si>
+  <si>
+    <t>GoldRewardToken</t>
+  </si>
+  <si>
+    <t>ASTA: ASTA Token</t>
+  </si>
+  <si>
+    <t>Mithril: MITH Token</t>
+  </si>
+  <si>
+    <t>Art Blocks: BLOCKS Token</t>
+  </si>
+  <si>
+    <t>Bingo Coin: BOC Token</t>
+  </si>
+  <si>
+    <t>OKEx: OKB Token</t>
+  </si>
+  <si>
+    <t>STP Network Token</t>
+  </si>
+  <si>
+    <t>Linear Finance: LINA Token</t>
+  </si>
+  <si>
+    <t>Dock Token</t>
+  </si>
+  <si>
+    <t>Po.et Token</t>
+  </si>
+  <si>
+    <t>Friendz Coin</t>
+  </si>
+  <si>
+    <t>Pundi X: PUNDIX Token</t>
+  </si>
+  <si>
+    <t>WFee: WFEE Token</t>
+  </si>
+  <si>
+    <t>Keep: KEEP Token</t>
+  </si>
+  <si>
+    <t>MakersPlace: MKT2 Token</t>
+  </si>
+  <si>
+    <t>Stox Token</t>
+  </si>
+  <si>
+    <t>OVR: OVR Token</t>
+  </si>
+  <si>
+    <t>Cobinhood: COB Token</t>
+  </si>
+  <si>
+    <t>X2Y2: X2Y2 Token</t>
+  </si>
+  <si>
+    <t>VeeFriends Series 2: VF2 Token</t>
+  </si>
+  <si>
+    <t>DODO: DODO Token</t>
+  </si>
+  <si>
+    <t>Augur: REPv2 Token</t>
+  </si>
+  <si>
+    <t>Skale Network: SKL Token</t>
+  </si>
+  <si>
+    <t>Keep3r: KP3R Token</t>
+  </si>
+  <si>
+    <t>Centra.tech: CTR Token</t>
+  </si>
+  <si>
+    <t>BlockCDN: BCDN Token</t>
+  </si>
+  <si>
+    <t>Frax Finance: FXS Token</t>
+  </si>
+  <si>
+    <t>Scatter.cx: STT Token</t>
+  </si>
+  <si>
+    <t>Bloom: Attestation Logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygon (Matic): Plasma </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fomo3D: Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OlympusDAO: Staking Help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoW Protocol: GPv2Settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GU: Rare Pack Four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth2 Deposit Contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimism: Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTEcoin (BTE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bancor: Swaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SKW (SKW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etheremon: Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENS: Public Resolver 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarible: Exchange 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Livepeer: Multi Merkle Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATCCOIN (ATCC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World Robot (WOR)</t>
+  </si>
+  <si>
+    <t>Switcheo Exchange V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empowr (EMPR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXdao: Mesa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDAG SPACE (iDAG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDA (IDA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBF Token (WT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poker Chips (CHP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTV (TTT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision.Network 100G Token (Voken)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multichain: Router V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OlympusDAO: sOHM V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bluzelle (BLZ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundMoneyCoin (SOV)</t>
+  </si>
+  <si>
+    <t>CLEAR Token (CLEAR)</t>
+  </si>
+  <si>
+    <t>XinFin XDCE (XDCE)</t>
+  </si>
+  <si>
+    <t>FDG (FDG)</t>
+  </si>
+  <si>
+    <t>IGCcoin (IGC)</t>
+  </si>
+  <si>
+    <t>Qitcoin (QTC)</t>
+  </si>
+  <si>
+    <t>LucidSight-MLB-NFT (MLBCB)</t>
+  </si>
+  <si>
+    <t>Edgeless (EDG)</t>
+  </si>
+  <si>
+    <t>Block X Token (BLKX)</t>
+  </si>
+  <si>
+    <t>smartshare token (SSP)</t>
+  </si>
+  <si>
+    <t>Eternal Token (ETE)</t>
+  </si>
+  <si>
+    <t>Android chain (ADC)</t>
+  </si>
+  <si>
+    <t>MEET.ONE (MEET.ONE)</t>
+  </si>
+  <si>
+    <t>Omega Protocol (OPL)</t>
+  </si>
+  <si>
+    <t>GameICO</t>
+  </si>
+  <si>
+    <t>Sinoc (SINOC)</t>
+  </si>
+  <si>
+    <t>Cybereits Token (CRE)</t>
+  </si>
+  <si>
+    <t>NKN (NKN)</t>
+  </si>
+  <si>
+    <t>STOCK (STO)</t>
+  </si>
+  <si>
+    <t>Blockchain To Application (BTA)</t>
+  </si>
+  <si>
+    <t>Xether.io: Games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maker: Sai Proxy 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wormhole: Portal Token Br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1inch Network: CHI Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pillar Project: PLR Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParaSwap P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenAlexa.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polychain Monsters: Egg Claims</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyber: Proxy 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>witcheo Exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalEthereum 2	0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curve.fi: Token Minter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orbit Chain: Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aave: WETH Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balancer: Exchange Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENS: Registry with Fallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DABANKING: Reserve Fund	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Graph: Proxy 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maker: Contract 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NEST Protocol: Old Oracle	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DODO: V2 Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuo Network: Reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global Alliance of Cultural and Ar... (GABA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disperse.app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auctionity: Old Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disperse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-sports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groups420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLaunch (VPAD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rollup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimism: Canonical Transaction Chain 为L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfKey (KEY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autonomous Identity Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeFi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adidas Originals: Metaverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voken Airdrop Fund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SafeMath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadescoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lottery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueUSD: Legacy Contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coinbase Wallet Swap Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>groups340</t>
-  </si>
-  <si>
-    <t>groups341</t>
-  </si>
-  <si>
-    <t>groups342</t>
-  </si>
-  <si>
-    <t>groups343</t>
-  </si>
-  <si>
-    <t>groups344</t>
-  </si>
-  <si>
-    <t>groups345</t>
-  </si>
-  <si>
-    <t>groups346</t>
-  </si>
-  <si>
-    <t>groups347</t>
-  </si>
-  <si>
-    <t>groups348</t>
-  </si>
-  <si>
-    <t>groups349</t>
-  </si>
-  <si>
-    <t>groups350</t>
-  </si>
-  <si>
-    <t>groups351</t>
-  </si>
-  <si>
-    <t>groups352</t>
-  </si>
-  <si>
-    <t>groups353</t>
-  </si>
-  <si>
-    <t>groups354</t>
-  </si>
-  <si>
-    <t>groups355</t>
-  </si>
-  <si>
-    <t>groups356</t>
-  </si>
-  <si>
-    <t>groups357</t>
-  </si>
-  <si>
-    <t>groups358</t>
-  </si>
-  <si>
-    <t>groups359</t>
-  </si>
-  <si>
-    <t>groups360</t>
-  </si>
-  <si>
-    <t>groups361</t>
-  </si>
-  <si>
-    <t>groups362</t>
-  </si>
-  <si>
-    <t>groups363</t>
-  </si>
-  <si>
-    <t>groups364</t>
-  </si>
-  <si>
-    <t>groups365</t>
-  </si>
-  <si>
-    <t>groups366</t>
-  </si>
-  <si>
-    <t>groups367</t>
-  </si>
-  <si>
-    <t>groups368</t>
-  </si>
-  <si>
-    <t>groups369</t>
-  </si>
-  <si>
-    <t>groups370</t>
-  </si>
-  <si>
-    <t>groups371</t>
-  </si>
-  <si>
-    <t>groups372</t>
-  </si>
-  <si>
-    <t>groups373</t>
-  </si>
-  <si>
-    <t>groups374</t>
-  </si>
-  <si>
-    <t>groups375</t>
-  </si>
-  <si>
-    <t>groups376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multisignature wallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReentrancyGuard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重入保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>groups377</t>
-  </si>
-  <si>
-    <t>groups378</t>
-  </si>
-  <si>
-    <t>groups379</t>
-  </si>
-  <si>
-    <t>groups380</t>
-  </si>
-  <si>
-    <t>groups381</t>
-  </si>
-  <si>
-    <t>groups382</t>
-  </si>
-  <si>
-    <t>groups383</t>
-  </si>
-  <si>
-    <t>groups384</t>
-  </si>
-  <si>
-    <t>groups385</t>
-  </si>
-  <si>
-    <t>groups386</t>
-  </si>
-  <si>
-    <t>groups387</t>
-  </si>
-  <si>
-    <t>groups388</t>
-  </si>
-  <si>
-    <t>groups389</t>
-  </si>
-  <si>
-    <t>groups390</t>
-  </si>
-  <si>
-    <t>groups391</t>
-  </si>
-  <si>
-    <t>groups392</t>
-  </si>
-  <si>
-    <t>groups393</t>
-  </si>
-  <si>
-    <t>groups394</t>
-  </si>
-  <si>
-    <t>groups395</t>
-  </si>
-  <si>
-    <t>groups396</t>
-  </si>
-  <si>
-    <t>groups397</t>
-  </si>
-  <si>
-    <t>groups398</t>
-  </si>
-  <si>
-    <t>groups399</t>
-  </si>
-  <si>
-    <t>groups400</t>
-  </si>
-  <si>
-    <t>groups401</t>
-  </si>
-  <si>
-    <t>groups402</t>
-  </si>
-  <si>
-    <t>groups403</t>
-  </si>
-  <si>
-    <t>groups404</t>
-  </si>
-  <si>
-    <t>groups405</t>
-  </si>
-  <si>
-    <t>groups406</t>
-  </si>
-  <si>
-    <t>groups407</t>
-  </si>
-  <si>
-    <t>groups408</t>
-  </si>
-  <si>
-    <t>groups409</t>
-  </si>
-  <si>
-    <t>groups410</t>
-  </si>
-  <si>
-    <t>groups411</t>
-  </si>
-  <si>
-    <t>groups412</t>
-  </si>
-  <si>
-    <t>groups413</t>
-  </si>
-  <si>
-    <t>groups414</t>
-  </si>
-  <si>
-    <t>groups415</t>
-  </si>
-  <si>
-    <t>groups416</t>
-  </si>
-  <si>
-    <t>groups417</t>
-  </si>
-  <si>
-    <t>groups418</t>
-  </si>
-  <si>
-    <t>groups419</t>
-  </si>
-  <si>
-    <t>groups420</t>
-  </si>
-  <si>
-    <t>groups421</t>
-  </si>
-  <si>
-    <t>groups422</t>
-  </si>
-  <si>
-    <t>groups423</t>
-  </si>
-  <si>
-    <t>groups424</t>
-  </si>
-  <si>
-    <t>groups425</t>
-  </si>
-  <si>
-    <t>groups426</t>
-  </si>
-  <si>
-    <t>groups427</t>
-  </si>
-  <si>
-    <t>groups428</t>
-  </si>
-  <si>
-    <t>groups429</t>
-  </si>
-  <si>
-    <t>groups430</t>
-  </si>
-  <si>
-    <t>groups431</t>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合约类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">均属于uniswap </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TetherToken和MSDToken 除币名和注释外完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>几种代币的代理合约 (4 129 508 573 861 971)相同; (371 257 552)相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenSea Wyvern Exchange合约的V1 V2版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EtherDelta 2和SingularX 代码完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合约数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些代币合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	Wrapped Ether</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap V3: Router 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap V3: Router</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metamask: Swap Router 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CryptoKitties (CK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dai Stablecoin (DAI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博彩游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forsage.io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些代币合约  与group14相近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ENS: ETH Registrar Controller	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Axie Infinity: Ronin Bridge	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenSea: Seaport 1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kraken 5 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Binance: Contract 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMM BSC 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polygon (Matic): Bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	StrongBlock: Service &amp; Kyber Network: KNC Token 代码完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理 &amp; 所有权管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有权管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	 KOK PLAY: KOK Token &amp; Davinci Coin 代码完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	TRON: Old TRX Token &amp; BFX (BFX)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	1inch v3/1inch v4: Router/1inch Network v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poloniex 2 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenSea: Registry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Registry</t>
-  </si>
-  <si>
-    <t>HEX.com: HEX Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bittrex 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fork split</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exchange Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PFeast (PFET) 未公开源码 反编译失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweeper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bittrex: Controller &amp; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gemini 4 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENS: Old Registrar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Registrar</t>
-  </si>
-  <si>
-    <t>Bitstamp 2 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldUnitedCoins (WUC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enjin Coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EasyClub.live 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baer Chain: BRC Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cronos Coin: CRO Token &amp; Coti: COTI Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Million.Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auction</t>
-  </si>
-  <si>
-    <t>CryptoKitties: Sales Auction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrueUSD: TUSD Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axie Infinity: SLP Token &amp; Axie Infinity: AXS Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WENI (WENI) &amp; Serum: SRM Token &amp; Ultra: UOS Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POCC (POCC) &amp; ProofOfContributionToken (POCT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eth2Dai: Old Contract/OasisDEX/OasisDex: Old Contract/OasisDex: Old Contract 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synthetix: Proxy SNX Token/Synthetix: Proxy sUSD Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kraken: Deployer 2 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golem Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status Network Token/Status: Token Sale 完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wintermute 1 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATB Banknote (ATB) 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码很短 没有太大相关性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Molecular Future Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	Aave: AAVE Token/Uniswap: Token Distributor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exchange v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biigo2 未公开源码 反编译获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binance: BNB Token/PlexCoin (PLX)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代币兑换率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyber: Conversion Rates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>The Sandbox: SAND Token 另一个合约与多个代币合约相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forwarder Factory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Celsius Network: CEL Token &amp; Insolar Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sai Stablecoin &amp; Maker Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loopring: LRC Token &amp; GSENetwork Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ygov.finance: YFI Token / YFII.finance: YFII Token / Value DeFi Protocol: YFV Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与247组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与44/182/296组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一组相同的合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCH: Daily Action 2/MCH: Daily Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KinguinIco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Demand SPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SafeMath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大富翁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEST_LoanContract</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1739,1089 +2989,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与93/242组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zkSync/ZKSwap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与44组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doubleway.io/CryptoHands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与47/92/210/339组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与47/90/92/323/339/414组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groups145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与21组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与266/314组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与142组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与29 90 373组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap:DAI 完全相同的一组合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与9 60 241组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与90 92 141 142 323组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与83组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与90 92 142 339组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与14组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与150 158组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdEx: Old Token/Bloxstaking: CDT Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与44 112 182组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与90 211组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFH: Daily Action V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopChainCoin (TOPC)</t>
-  </si>
-  <si>
-    <t>与150组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与111组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与93 121组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与9 60 281 359组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chainlink Oracle contract 一组相同的合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与90 212 289组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与13 47 92 141组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Porxy/Interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与80组相似 很短的合约 逻辑并不相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与63组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与44 112 296组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与314组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ownable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用了很多相同的库 合约功能不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价预言机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zapper: ZPR NFT Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem: GemSwap 2/Genie: GenieSwap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与60 86 261组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groups232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与21组相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VNDC Stablecoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curve.fi: CRV Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap V3: Positions NFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tellor: TRB Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCH: Daily Action 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token.Store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyber: Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarLive Chain: IOV Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0xUniverse: PLANET Token	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groups103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fantom: FTM Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liberty Cash (LCS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x: Exchange v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The OpenDAO: SOS Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shiba Inu: Migrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerLedgerToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USDA Stablecoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nexo Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verasity: VRA Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tokenlon: DEX 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decentralized Data Assets Management: DDAM Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rarible: RARI Token 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bancor: BNT Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunFair Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lambda: LAMB Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFT Auction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aave: Lending Pool V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x: Exchange v2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalEthereum 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ambrosus: AMB Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Fans ERC20 Token (PFC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blockchain Cuties: Old BC Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VeChain: Old Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LooksRare: Fee Sharing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LooksRare: Exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LooksRare: LOOKS Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Numeraire Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> FairWin.me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Registrar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENS: Reverse Registrar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0x: Old Exchange v2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aave: LEND Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aelf: ELF Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tokenlon: DEX 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICON: Old Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balancer: Exchange Proxy 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amp: AMP Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1inch.exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bit Miner Chain: BTMC Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IdleEth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KickICO: Old KICK Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loopring: Old Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dentacoin Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kin: Old Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balancer: Vault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hedron: HDRN Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NuCypher: StakingEscrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEx.top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avinoc.com: AVINOC Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Aave: Lending Pool V1	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gifto Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GasToken.io: GST2 Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Augur: REP Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> LionsShare.io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeFi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atoshima Konsato</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital Gold Exchange: TMTG Token</t>
-  </si>
-  <si>
-    <t>OlympusDAO: OHM V1 Token</t>
-  </si>
-  <si>
-    <t>Karl Benz (KAR)</t>
-  </si>
-  <si>
-    <t>民宿通 (MST)</t>
-  </si>
-  <si>
-    <t>VIDT Datalink: Old VIDT Token</t>
-  </si>
-  <si>
-    <t>CryptoPunks: Ͼ Token</t>
-  </si>
-  <si>
-    <t>RipioCreditNetwork Token</t>
-  </si>
-  <si>
-    <t>BitqyToken</t>
-  </si>
-  <si>
-    <t>HUSD Stablecoin</t>
-  </si>
-  <si>
-    <t>Yotta Coin</t>
-  </si>
-  <si>
-    <t>Gemini: GUSD Token</t>
-  </si>
-  <si>
-    <t>Theta: Old Token</t>
-  </si>
-  <si>
-    <t>Lido: stETH Token</t>
-  </si>
-  <si>
-    <t>EDUCare: EKT Token</t>
-  </si>
-  <si>
-    <t>Sirin Labs Token</t>
-  </si>
-  <si>
-    <t>Abracadabra.money: SPELL Token</t>
-  </si>
-  <si>
-    <t>0xe963b0fa93f48c3be91871f8ab6452a446bca7e4</t>
-  </si>
-  <si>
-    <t>KickICO: Old Token 2</t>
-  </si>
-  <si>
-    <t>Storm Token</t>
-  </si>
-  <si>
-    <t>The Otherside: OTHR Token</t>
-  </si>
-  <si>
-    <t>TheDAO Token</t>
-  </si>
-  <si>
-    <t>QuickX Protocol Token</t>
-  </si>
-  <si>
-    <t>StormX Global: STMX Token</t>
-  </si>
-  <si>
-    <t>Consentium: CSM Token</t>
-  </si>
-  <si>
-    <t>Shiba Inu: LEASH Token</t>
-  </si>
-  <si>
-    <t>Zethr Token</t>
-  </si>
-  <si>
-    <t>Cryptaur: CPT Token</t>
-  </si>
-  <si>
-    <t>dYdX: DYDX Token</t>
-  </si>
-  <si>
-    <t>SuperFarm: SUPER Token</t>
-  </si>
-  <si>
-    <t>Veen Token</t>
-  </si>
-  <si>
-    <t>More Loot: MLOOT Token</t>
-  </si>
-  <si>
-    <t>MATRIX AI Network: Old Token</t>
-  </si>
-  <si>
-    <t>ShibaSwap: BONE Token</t>
-  </si>
-  <si>
-    <t>ICONOMI Token</t>
-  </si>
-  <si>
-    <t>Crypterium: Old CRPT Token</t>
-  </si>
-  <si>
-    <t>AirSwap: AST Token</t>
-  </si>
-  <si>
-    <t>Credits: CS Token</t>
-  </si>
-  <si>
-    <t>Axie Infinity: AXIE Token</t>
-  </si>
-  <si>
-    <t>Gas DAO: GAS Token</t>
-  </si>
-  <si>
-    <t>Crypto20: C20 Token</t>
-  </si>
-  <si>
-    <t>Minereum: Old Token 1</t>
-  </si>
-  <si>
-    <t>Love, Death + Robots: LDR Token</t>
-  </si>
-  <si>
-    <t>AION: Old Token</t>
-  </si>
-  <si>
-    <t>EDUCare: Old Token</t>
-  </si>
-  <si>
-    <t>DigixDAO: DGD Token</t>
-  </si>
-  <si>
-    <t>Akropolis: AKRO Token</t>
-  </si>
-  <si>
-    <t>Raiden Token</t>
-  </si>
-  <si>
-    <t>1inch Network: CHI Token</t>
-  </si>
-  <si>
-    <t>Pillar Project: PLR Token</t>
-  </si>
-  <si>
-    <t>EverexToken</t>
-  </si>
-  <si>
-    <t>StarChain: STC Token</t>
-  </si>
-  <si>
-    <t>LLToken</t>
-  </si>
-  <si>
-    <t>Illuvium: ILV Token</t>
-  </si>
-  <si>
-    <t>PChain Token</t>
-  </si>
-  <si>
-    <t>WingsDAO Token</t>
-  </si>
-  <si>
-    <t>Blockpass: PASS Token</t>
-  </si>
-  <si>
-    <t>Snapparazzi Token</t>
-  </si>
-  <si>
-    <t>Simple Token</t>
-  </si>
-  <si>
-    <t>GoldRewardToken</t>
-  </si>
-  <si>
-    <t>ASTA: ASTA Token</t>
-  </si>
-  <si>
-    <t>Mithril: MITH Token</t>
-  </si>
-  <si>
-    <t>Art Blocks: BLOCKS Token</t>
-  </si>
-  <si>
-    <t>Bingo Coin: BOC Token</t>
-  </si>
-  <si>
-    <t>OKEx: OKB Token</t>
-  </si>
-  <si>
-    <t>STP Network Token</t>
-  </si>
-  <si>
-    <t>Linear Finance: LINA Token</t>
-  </si>
-  <si>
-    <t>Dock Token</t>
-  </si>
-  <si>
-    <t>Po.et Token</t>
-  </si>
-  <si>
-    <t>Friendz Coin</t>
-  </si>
-  <si>
-    <t>Pundi X: PUNDIX Token</t>
-  </si>
-  <si>
-    <t>WFee: WFEE Token</t>
-  </si>
-  <si>
-    <t>Keep: KEEP Token</t>
-  </si>
-  <si>
-    <t>MakersPlace: MKT2 Token</t>
-  </si>
-  <si>
-    <t>Stox Token</t>
-  </si>
-  <si>
-    <t>OVR: OVR Token</t>
-  </si>
-  <si>
-    <t>Cobinhood: COB Token</t>
-  </si>
-  <si>
-    <t>X2Y2: X2Y2 Token</t>
-  </si>
-  <si>
-    <t>VeeFriends Series 2: VF2 Token</t>
-  </si>
-  <si>
-    <t>DODO: DODO Token</t>
-  </si>
-  <si>
-    <t>Augur: REPv2 Token</t>
-  </si>
-  <si>
-    <t>Skale Network: SKL Token</t>
-  </si>
-  <si>
-    <t>Keep3r: KP3R Token</t>
-  </si>
-  <si>
-    <t>Centra.tech: CTR Token</t>
-  </si>
-  <si>
-    <t>BlockCDN: BCDN Token</t>
-  </si>
-  <si>
-    <t>Frax Finance: FXS Token</t>
-  </si>
-  <si>
-    <t>Scatter.cx: STT Token</t>
-  </si>
-  <si>
-    <t>Bloom: Attestation Logic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygon (Matic): Plasma </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fomo3D: Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OlympusDAO: Staking Help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoW Protocol: GPv2Settlement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GU: Rare Pack Four</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eth2 Deposit Contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimism: Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTEcoin (BTE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bancor: Swaps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> SKW (SKW)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etheremon: Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENS: Public Resolver 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rarible: Exchange 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Livepeer: Multi Merkle Mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATCCOIN (ATCC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>World Robot (WOR)</t>
-  </si>
-  <si>
-    <t>Switcheo Exchange V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empowr (EMPR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DXdao: Mesa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iDAG SPACE (iDAG)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDA (IDA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBF Token (WT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poker Chips (CHP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TTV (TTT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vision.Network 100G Token (Voken)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multichain: Router V4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OlympusDAO: sOHM V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bluzelle (BLZ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoundMoneyCoin (SOV)</t>
-  </si>
-  <si>
-    <t>FirstBlood</t>
-  </si>
-  <si>
-    <t>VLaunch (VPAD)</t>
-  </si>
-  <si>
-    <t>CLEAR Token (CLEAR)</t>
-  </si>
-  <si>
-    <t>XinFin XDCE (XDCE)</t>
-  </si>
-  <si>
-    <t>SelfKey (KEY)</t>
-  </si>
-  <si>
-    <t>FDG (FDG)</t>
-  </si>
-  <si>
-    <t>IGCcoin (IGC)</t>
-  </si>
-  <si>
-    <t>Qitcoin (QTC)</t>
-  </si>
-  <si>
-    <t>LucidSight-MLB-NFT (MLBCB)</t>
-  </si>
-  <si>
-    <t>Edgeless (EDG)</t>
-  </si>
-  <si>
-    <t>Block X Token (BLKX)</t>
-  </si>
-  <si>
-    <t>adidas Originals: Metaverse</t>
-  </si>
-  <si>
-    <t>smartshare token (SSP)</t>
-  </si>
-  <si>
-    <t>Eternal Token (ETE)</t>
-  </si>
-  <si>
-    <t>Android chain (ADC)</t>
-  </si>
-  <si>
-    <t>MEET.ONE (MEET.ONE)</t>
-  </si>
-  <si>
-    <t>Omega Protocol (OPL)</t>
-  </si>
-  <si>
-    <t>GameICO</t>
-  </si>
-  <si>
-    <t>TrueUSD: Legacy Contract</t>
-  </si>
-  <si>
-    <t>Sinoc (SINOC)</t>
-  </si>
-  <si>
-    <t>Cybereits Token (CRE)</t>
-  </si>
-  <si>
-    <t>NKN (NKN)</t>
-  </si>
-  <si>
-    <t>STOCK (STO)</t>
-  </si>
-  <si>
-    <t>Blockchain To Application (BTA)</t>
-  </si>
-  <si>
-    <t>Xether.io: Games</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maker: Sai Proxy 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wormhole: Portal Token Br</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1inch Network: CHI Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pillar Project: PLR Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParaSwap P4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenAlexa.io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polychain Monsters: Egg Claims</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tokenlon: Merkle Redeem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyber: Proxy 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>witcheo Exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalEthereum 2	0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curve.fi: Token Minter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orbit Chain: Bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aave: WETH Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balancer: Exchange Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENS: Registry with Fallback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DABANKING: Reserve Fund	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Graph: Proxy 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maker: Contract 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimism: Canonical Transaction Chain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NEST Protocol: Old Oracle	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DODO: V2 Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuo Network: Reserve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global Alliance of Cultural and Ar... (GABA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disperse.app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auctionity: Old Address</t>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EtherChain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3211,27 +3383,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919D613-43B4-48E6-A2D9-38EFAC307567}">
   <dimension ref="A1:E432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="79.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3248,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3273,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3284,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3301,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3312,10 +3484,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3329,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3340,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3354,10 +3526,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3371,7 +3543,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3382,10 +3554,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3399,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3413,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3424,10 +3596,10 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3441,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3455,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,10 +3638,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3483,7 +3655,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3494,10 +3666,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3508,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3522,10 +3694,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3536,10 +3708,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3553,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3564,10 +3736,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3581,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3595,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3609,7 +3781,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3620,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3637,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3651,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3665,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3679,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3690,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3704,10 +3876,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3718,10 +3890,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3735,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3746,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3763,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3777,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3791,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3805,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3819,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3833,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3847,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3861,7 +4033,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3872,10 +4044,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3889,7 +4061,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3903,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3914,10 +4086,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3928,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3942,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,10 +4128,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3973,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3984,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3998,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4015,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4029,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4043,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4057,7 +4229,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4071,7 +4243,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4082,10 +4254,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4099,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4113,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4124,10 +4296,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4138,10 +4310,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4152,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4169,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4183,7 +4355,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4194,10 +4366,10 @@
         <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4208,10 +4380,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4225,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4239,7 +4411,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4253,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4267,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4281,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4295,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4309,7 +4481,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4323,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4337,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4348,10 +4520,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4365,7 +4537,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4379,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4393,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,10 +4576,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4421,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4432,10 +4604,10 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4446,10 +4618,10 @@
         <v>6</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4460,10 +4632,10 @@
         <v>17</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,10 +4646,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,10 +4660,10 @@
         <v>35</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4502,10 +4674,10 @@
         <v>6</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4516,10 +4688,10 @@
         <v>27</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,10 +4702,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,10 +4716,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4558,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4586,10 +4758,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4600,10 +4772,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4614,10 +4786,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4628,10 +4800,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4642,10 +4814,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4656,24 +4828,24 @@
         <v>1</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B104" s="5">
         <v>1</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,10 +4856,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4698,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,10 +4884,10 @@
         <v>2</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4726,10 +4898,10 @@
         <v>2</v>
       </c>
       <c r="C108" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4740,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4754,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4768,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4782,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4796,10 +4968,10 @@
         <v>18</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4810,10 +4982,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4824,10 +4996,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4838,10 +5010,10 @@
         <v>11</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4852,10 +5024,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4866,10 +5038,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4880,10 +5052,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4894,10 +5066,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4908,10 +5080,10 @@
         <v>2</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4922,10 +5094,10 @@
         <v>5</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4936,10 +5108,10 @@
         <v>2</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4950,10 +5122,10 @@
         <v>3</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4964,10 +5136,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4978,10 +5150,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4992,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5006,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D128" s="7"/>
     </row>
@@ -5018,10 +5190,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5032,10 +5204,10 @@
         <v>1</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5046,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5060,10 +5232,10 @@
         <v>1</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5074,7 +5246,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D133" s="7"/>
     </row>
@@ -5086,10 +5258,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5100,10 +5272,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5114,10 +5286,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5128,10 +5300,10 @@
         <v>2</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5142,10 +5314,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5156,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D139" s="7"/>
     </row>
@@ -5168,7 +5340,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D140" s="7"/>
     </row>
@@ -5183,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5194,10 +5366,10 @@
         <v>6</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5208,10 +5380,10 @@
         <v>11</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5236,18 +5408,18 @@
         <v>3</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B146" s="5">
         <v>3</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D146" s="7"/>
     </row>
@@ -5259,10 +5431,10 @@
         <v>2</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5273,7 +5445,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D148" s="7"/>
     </row>
@@ -5285,10 +5457,10 @@
         <v>1</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5299,10 +5471,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5313,10 +5485,10 @@
         <v>11</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5327,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D152" s="7"/>
     </row>
@@ -5342,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5356,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5367,10 +5539,10 @@
         <v>1</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5381,10 +5553,10 @@
         <v>1</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5395,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5409,7 +5581,7 @@
         <v>2</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D158" s="7"/>
     </row>
@@ -5421,10 +5593,10 @@
         <v>3</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -5435,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D160" s="7"/>
     </row>
@@ -5447,10 +5619,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5461,10 +5633,10 @@
         <v>1</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5475,7 +5647,7 @@
         <v>2</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D163" s="7"/>
     </row>
@@ -5487,10 +5659,10 @@
         <v>1</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5501,10 +5673,10 @@
         <v>2</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5515,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5529,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,10 +5715,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5557,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5571,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5582,10 +5754,10 @@
         <v>1</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5596,7 +5768,7 @@
         <v>2</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D172" s="7"/>
     </row>
@@ -5608,10 +5780,10 @@
         <v>2</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5622,10 +5794,10 @@
         <v>3</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5636,10 +5808,10 @@
         <v>1</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5650,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5664,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5678,10 +5850,10 @@
         <v>1</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5692,10 +5864,10 @@
         <v>2</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -5706,10 +5878,10 @@
         <v>1</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -5720,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D181" s="7"/>
     </row>
@@ -5735,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -5746,10 +5918,10 @@
         <v>9</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -5760,10 +5932,10 @@
         <v>1</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -5774,10 +5946,10 @@
         <v>1</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -5788,10 +5960,10 @@
         <v>1</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -5802,10 +5974,10 @@
         <v>1</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -5816,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D188" s="7"/>
     </row>
@@ -5828,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D189" s="7"/>
     </row>
@@ -5840,10 +6012,10 @@
         <v>1</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -5854,10 +6026,10 @@
         <v>1</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -5868,10 +6040,10 @@
         <v>1</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -5882,10 +6054,10 @@
         <v>4</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -5899,7 +6071,7 @@
         <v>3</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -5910,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D195" s="7"/>
     </row>
@@ -5922,7 +6094,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D196" s="7"/>
     </row>
@@ -5934,10 +6106,10 @@
         <v>1</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -5948,10 +6120,10 @@
         <v>1</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -5962,10 +6134,10 @@
         <v>7</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -5976,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D200" s="7"/>
     </row>
@@ -5988,10 +6160,10 @@
         <v>1</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6002,7 +6174,7 @@
         <v>3</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D202" s="7"/>
     </row>
@@ -6014,10 +6186,10 @@
         <v>1</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6028,10 +6200,10 @@
         <v>1</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6042,10 +6214,10 @@
         <v>1</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6056,10 +6228,10 @@
         <v>1</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6070,10 +6242,10 @@
         <v>1</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6084,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6098,10 +6270,10 @@
         <v>1</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6112,10 +6284,10 @@
         <v>1</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6126,10 +6298,10 @@
         <v>8</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6140,10 +6312,10 @@
         <v>3</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6154,10 +6326,10 @@
         <v>2</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6168,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D214" s="7"/>
     </row>
@@ -6180,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6193,8 +6365,11 @@
       <c r="B216" s="5">
         <v>1</v>
       </c>
+      <c r="C216" s="2" t="s">
+        <v>874</v>
+      </c>
       <c r="D216" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6205,7 +6380,7 @@
         <v>5</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D217" s="7"/>
     </row>
@@ -6217,10 +6392,10 @@
         <v>1</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6231,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D219" s="7"/>
     </row>
@@ -6242,6 +6417,12 @@
       <c r="B220" s="5">
         <v>1</v>
       </c>
+      <c r="C220" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
@@ -6250,6 +6431,9 @@
       <c r="B221" s="5">
         <v>1</v>
       </c>
+      <c r="C221" s="2" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
@@ -6259,10 +6443,10 @@
         <v>1</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6273,10 +6457,10 @@
         <v>1</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6287,10 +6471,10 @@
         <v>1</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6300,8 +6484,11 @@
       <c r="B225" s="5">
         <v>1</v>
       </c>
+      <c r="C225" s="2" t="s">
+        <v>847</v>
+      </c>
       <c r="D225" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6311,8 +6498,11 @@
       <c r="B226" s="5">
         <v>1</v>
       </c>
+      <c r="C226" s="2" t="s">
+        <v>838</v>
+      </c>
       <c r="D226" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6323,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D227" s="7"/>
     </row>
@@ -6335,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D228" s="7"/>
     </row>
@@ -6347,10 +6537,10 @@
         <v>1</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -6361,10 +6551,10 @@
         <v>1</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -6375,10 +6565,10 @@
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -6389,24 +6579,24 @@
         <v>2</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B233" s="5">
         <v>2</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -6417,10 +6607,10 @@
         <v>15</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -6430,8 +6620,11 @@
       <c r="B235" s="5">
         <v>1</v>
       </c>
+      <c r="C235" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D235" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -6441,8 +6634,11 @@
       <c r="B236" s="5">
         <v>1</v>
       </c>
+      <c r="C236" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D236" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -6452,8 +6648,11 @@
       <c r="B237" s="5">
         <v>1</v>
       </c>
+      <c r="C237" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D237" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -6464,10 +6663,10 @@
         <v>1</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -6477,8 +6676,11 @@
       <c r="B239" s="5">
         <v>1</v>
       </c>
+      <c r="C239" s="2" t="s">
+        <v>848</v>
+      </c>
       <c r="D239" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -6488,8 +6690,11 @@
       <c r="B240" s="5">
         <v>1</v>
       </c>
+      <c r="C240" s="2" t="s">
+        <v>849</v>
+      </c>
       <c r="D240" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -6499,8 +6704,11 @@
       <c r="B241" s="5">
         <v>1</v>
       </c>
+      <c r="C241" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D241" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -6511,10 +6719,10 @@
         <v>14</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -6528,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -6539,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D244" s="7"/>
     </row>
@@ -6550,8 +6758,11 @@
       <c r="B245" s="5">
         <v>1</v>
       </c>
+      <c r="C245" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D245" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -6562,10 +6773,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -6576,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -6593,7 +6804,7 @@
         <v>3</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -6603,8 +6814,11 @@
       <c r="B249" s="5">
         <v>1</v>
       </c>
+      <c r="C249" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D249" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -6615,10 +6829,10 @@
         <v>1</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -6629,10 +6843,10 @@
         <v>1</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -6643,10 +6857,10 @@
         <v>1</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -6657,10 +6871,10 @@
         <v>2</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -6670,8 +6884,11 @@
       <c r="B254" s="5">
         <v>1</v>
       </c>
+      <c r="C254" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D254" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -6682,10 +6899,10 @@
         <v>1</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -6696,10 +6913,10 @@
         <v>1</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -6709,6 +6926,9 @@
       <c r="B257" s="5">
         <v>1</v>
       </c>
+      <c r="C257" s="2" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
@@ -6717,8 +6937,11 @@
       <c r="B258" s="5">
         <v>1</v>
       </c>
+      <c r="C258" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D258" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -6728,8 +6951,11 @@
       <c r="B259" s="5">
         <v>1</v>
       </c>
+      <c r="C259" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D259" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -6740,7 +6966,7 @@
         <v>3</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D260" s="7"/>
     </row>
@@ -6752,10 +6978,10 @@
         <v>1</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -6766,10 +6992,10 @@
         <v>2</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -6780,10 +7006,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -6793,8 +7019,11 @@
       <c r="B264" s="5">
         <v>1</v>
       </c>
+      <c r="C264" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D264" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -6804,8 +7033,11 @@
       <c r="B265" s="5">
         <v>1</v>
       </c>
+      <c r="C265" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D265" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -6815,8 +7047,11 @@
       <c r="B266" s="5">
         <v>1</v>
       </c>
+      <c r="C266" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D266" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -6827,10 +7062,10 @@
         <v>3</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -6840,8 +7075,11 @@
       <c r="B268" s="5">
         <v>1</v>
       </c>
+      <c r="C268" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D268" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -6852,10 +7090,10 @@
         <v>2</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -6866,10 +7104,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -6880,10 +7118,10 @@
         <v>1</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -6893,8 +7131,11 @@
       <c r="B272" s="5">
         <v>1</v>
       </c>
+      <c r="C272" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D272" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -6904,6 +7145,9 @@
       <c r="B273" s="5">
         <v>1</v>
       </c>
+      <c r="C273" s="2" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
@@ -6913,10 +7157,10 @@
         <v>3</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -6927,10 +7171,10 @@
         <v>1</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -6940,6 +7184,12 @@
       <c r="B276" s="5">
         <v>1</v>
       </c>
+      <c r="C276" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
@@ -6949,10 +7199,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -6963,10 +7213,10 @@
         <v>1</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -6977,10 +7227,10 @@
         <v>1</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -6990,8 +7240,11 @@
       <c r="B280" s="5">
         <v>1</v>
       </c>
+      <c r="C280" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D280" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7002,10 +7255,10 @@
         <v>1</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7016,10 +7269,10 @@
         <v>5</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7029,8 +7282,11 @@
       <c r="B283" s="5">
         <v>1</v>
       </c>
+      <c r="C283" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D283" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7041,10 +7297,10 @@
         <v>1</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7055,7 +7311,7 @@
         <v>2</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D285" s="7"/>
     </row>
@@ -7067,10 +7323,10 @@
         <v>2</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7080,6 +7336,12 @@
       <c r="B287" s="5">
         <v>1</v>
       </c>
+      <c r="C287" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
@@ -7088,8 +7350,11 @@
       <c r="B288" s="5">
         <v>1</v>
       </c>
+      <c r="C288" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D288" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7100,10 +7365,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7114,10 +7379,10 @@
         <v>5</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7127,8 +7392,11 @@
       <c r="B291" s="5">
         <v>1</v>
       </c>
+      <c r="C291" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D291" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7138,8 +7406,11 @@
       <c r="B292" s="5">
         <v>1</v>
       </c>
+      <c r="C292" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D292" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -7150,10 +7421,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -7164,10 +7435,10 @@
         <v>1</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7178,10 +7449,10 @@
         <v>1</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -7192,10 +7463,10 @@
         <v>1</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -7206,10 +7477,10 @@
         <v>3</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -7219,6 +7490,12 @@
       <c r="B298" s="5">
         <v>1</v>
       </c>
+      <c r="C298" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
@@ -7228,10 +7505,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -7242,10 +7519,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -7256,10 +7533,10 @@
         <v>2</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -7270,10 +7547,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -7284,10 +7561,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -7298,10 +7575,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -7311,8 +7588,11 @@
       <c r="B305" s="5">
         <v>1</v>
       </c>
+      <c r="C305" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D305" s="2" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -7322,8 +7602,11 @@
       <c r="B306" s="5">
         <v>1</v>
       </c>
+      <c r="C306" s="2" t="s">
+        <v>854</v>
+      </c>
       <c r="D306" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -7333,6 +7616,12 @@
       <c r="B307" s="5">
         <v>1</v>
       </c>
+      <c r="C307" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
@@ -7341,8 +7630,11 @@
       <c r="B308" s="5">
         <v>1</v>
       </c>
+      <c r="C308" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D308" s="2" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -7352,8 +7644,11 @@
       <c r="B309" s="5">
         <v>1</v>
       </c>
+      <c r="C309" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D309" s="2" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -7364,10 +7659,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -7377,6 +7672,9 @@
       <c r="B311" s="5">
         <v>1</v>
       </c>
+      <c r="C311" s="2" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
@@ -7386,10 +7684,10 @@
         <v>2</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -7400,10 +7698,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -7413,8 +7711,11 @@
       <c r="B314" s="5">
         <v>1</v>
       </c>
+      <c r="C314" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D314" s="2" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -7425,10 +7726,10 @@
         <v>4</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -7439,10 +7740,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -7453,10 +7754,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -7467,10 +7768,10 @@
         <v>2</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -7480,8 +7781,11 @@
       <c r="B319" s="5">
         <v>1</v>
       </c>
+      <c r="C319" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D319" s="2" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -7492,10 +7796,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -7506,10 +7810,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -7519,8 +7823,11 @@
       <c r="B322" s="5">
         <v>1</v>
       </c>
+      <c r="C322" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D322" s="2" t="s">
-        <v>803</v>
+        <v>857</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -7530,8 +7837,11 @@
       <c r="B323" s="5">
         <v>1</v>
       </c>
+      <c r="C323" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="D323" s="2" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -7542,10 +7852,10 @@
         <v>3</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -7556,10 +7866,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -7570,10 +7880,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -7583,6 +7893,12 @@
       <c r="B327" s="5">
         <v>1</v>
       </c>
+      <c r="C327" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
@@ -7592,10 +7908,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -7606,10 +7922,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -7620,7 +7936,7 @@
         <v>2</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D330" s="7"/>
     </row>
@@ -7631,6 +7947,12 @@
       <c r="B331" s="5">
         <v>1</v>
       </c>
+      <c r="C331" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
@@ -7640,10 +7962,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -7654,10 +7976,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -7668,10 +7990,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -7682,10 +8004,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -7695,6 +8017,9 @@
       <c r="B336" s="5">
         <v>1</v>
       </c>
+      <c r="C336" s="2" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
@@ -7703,6 +8028,12 @@
       <c r="B337" s="5">
         <v>1</v>
       </c>
+      <c r="C337" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
@@ -7711,8 +8042,11 @@
       <c r="B338" s="5">
         <v>1</v>
       </c>
+      <c r="C338" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D338" s="3" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -7723,10 +8057,10 @@
         <v>3</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -7737,1127 +8071,1286 @@
         <v>5</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>340</v>
+        <v>861</v>
       </c>
       <c r="B341" s="5">
         <v>1</v>
       </c>
+      <c r="C341" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="D341" s="3" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="5">
         <v>1</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="5">
         <v>1</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="5">
         <v>1</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="5">
         <v>1</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="5">
         <v>1</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="5">
         <v>1</v>
       </c>
+      <c r="C347" s="2" t="s">
+        <v>848</v>
+      </c>
       <c r="D347" s="3" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="5">
         <v>1</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="5">
         <v>1</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="5">
         <v>1</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="5">
         <v>1</v>
       </c>
+      <c r="C351" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="D351" s="2" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="5">
         <v>1</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="5">
         <v>1</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="5">
         <v>1</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="5">
         <v>1</v>
       </c>
+      <c r="C355" s="2" t="s">
+        <v>870</v>
+      </c>
       <c r="D355" s="3" t="s">
-        <v>817</v>
+        <v>871</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="5">
         <v>8</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="5">
         <v>1</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="5">
         <v>1</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="5">
         <v>1</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="5">
         <v>6</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="5">
         <v>1</v>
       </c>
+      <c r="C361" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="D361" s="3" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="5">
         <v>1</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="5">
         <v>1</v>
       </c>
+      <c r="C363" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D363" s="2" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="5">
         <v>1</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="5">
         <v>1</v>
       </c>
+      <c r="C365" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="D365" s="3" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="5">
         <v>1</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="5">
         <v>1</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="5">
         <v>1</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="5">
         <v>4</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="5">
         <v>1</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="5">
         <v>1</v>
       </c>
+      <c r="C371" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D371" s="2" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="5">
         <v>1</v>
       </c>
+      <c r="C372" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D372" s="2" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="5">
         <v>1</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="5">
         <v>2</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="5">
         <v>1</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="5">
         <v>1</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="5">
         <v>1</v>
       </c>
+      <c r="C377" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="D377" s="2" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>377</v>
+        <v>865</v>
       </c>
       <c r="B378" s="5">
         <v>1</v>
       </c>
+      <c r="C378" s="2" t="s">
+        <v>859</v>
+      </c>
       <c r="D378" s="3" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B379" s="5">
         <v>1</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B380" s="5">
         <v>1</v>
       </c>
+      <c r="C380" s="2" t="s">
+        <v>841</v>
+      </c>
       <c r="D380" s="2" t="s">
-        <v>796</v>
+        <v>845</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B381" s="5">
         <v>1</v>
       </c>
+      <c r="C381" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D381" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B382" s="5">
         <v>1</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B383" s="5">
         <v>1</v>
       </c>
+      <c r="C383" s="2" t="s">
+        <v>843</v>
+      </c>
       <c r="D383" s="3" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B384" s="5">
         <v>1</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B385" s="5">
         <v>1</v>
       </c>
+      <c r="C385" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D385" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B386" s="5">
         <v>1</v>
       </c>
+      <c r="C386" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D386" s="3" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B387" s="5">
         <v>1</v>
       </c>
+      <c r="C387" s="2" t="s">
+        <v>842</v>
+      </c>
       <c r="D387" s="3" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B388" s="5">
         <v>1</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B389" s="5">
         <v>1</v>
       </c>
+      <c r="C389" s="2" t="s">
+        <v>841</v>
+      </c>
       <c r="D389" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B390" s="5">
         <v>1</v>
       </c>
+      <c r="C390" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D390" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B391" s="5">
         <v>1</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B392" s="5">
         <v>1</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B393" s="5">
         <v>1</v>
       </c>
+      <c r="C393" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D393" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B394" s="5">
         <v>1</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B395" s="5">
         <v>1</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B396" s="5">
         <v>1</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B397" s="5">
         <v>1</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B398" s="5">
         <v>1</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B399" s="5">
         <v>1</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B400" s="5">
         <v>1</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B401" s="5">
         <v>1</v>
       </c>
+      <c r="C401" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="D401" s="2" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B402" s="5">
         <v>1</v>
       </c>
+      <c r="C402" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D402" s="2" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B403" s="5">
         <v>1</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B404" s="5">
         <v>1</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B405" s="5">
         <v>1</v>
       </c>
+      <c r="C405" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D405" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B406" s="5">
         <v>1</v>
       </c>
+      <c r="C406" s="2" t="s">
+        <v>838</v>
+      </c>
       <c r="D406" s="2" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B407" s="5">
         <v>1</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B408" s="5">
         <v>1</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B409" s="5">
         <v>1</v>
       </c>
+      <c r="C409" s="2" t="s">
+        <v>837</v>
+      </c>
       <c r="D409" s="2" t="s">
-        <v>789</v>
+        <v>836</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B410" s="5">
         <v>1</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B411" s="5">
         <v>1</v>
       </c>
+      <c r="C411" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D411" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B412" s="5">
         <v>1</v>
       </c>
+      <c r="C412" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D412" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B413" s="5">
         <v>1</v>
       </c>
+      <c r="C413" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="D413" s="3" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B414" s="5">
         <v>1</v>
       </c>
+      <c r="C414" s="2" t="s">
+        <v>833</v>
+      </c>
       <c r="D414" s="3" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B415" s="5">
         <v>2</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B416" s="5">
         <v>1</v>
       </c>
+      <c r="C416" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D416" s="2" t="s">
-        <v>786</v>
+        <v>832</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B417" s="5">
         <v>1</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B418" s="5">
         <v>1</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B419" s="5">
         <v>1</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B420" s="5">
         <v>1</v>
       </c>
+      <c r="C420" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D420" s="3" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>420</v>
+        <v>830</v>
       </c>
       <c r="B421" s="5">
         <v>1</v>
       </c>
+      <c r="C421" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D421" s="2" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B422" s="5">
         <v>1</v>
       </c>
+      <c r="C422" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D422" s="2" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B423" s="5">
         <v>1</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B424" s="5">
         <v>1</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B425" s="5">
         <v>1</v>
       </c>
+      <c r="C425" s="2" t="s">
+        <v>829</v>
+      </c>
       <c r="D425" s="2" t="s">
-        <v>785</v>
+        <v>828</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B426" s="5">
         <v>1</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B427" s="5">
         <v>1</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B428" s="5">
         <v>1</v>
       </c>
+      <c r="C428" s="2" t="s">
+        <v>827</v>
+      </c>
       <c r="D428" s="2" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B429" s="5">
         <v>1</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B430" s="5">
         <v>1</v>
       </c>
+      <c r="C430" s="2" t="s">
+        <v>835</v>
+      </c>
       <c r="D430" s="2" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B431" s="5">
         <v>1</v>
       </c>
+      <c r="C431" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D431" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B432" s="5">
         <v>1</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
